--- a/PHS_Grade12@psd1.org.xlsx
+++ b/PHS_Grade12@psd1.org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John C. Weisenfeld\Documents\GitHub\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FED3F62E-B884-4DF6-91A9-8F76FF29F5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{79EF6000-EC1E-4FD5-A846-F8D3DE50F8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="-120" windowWidth="19755" windowHeight="11760"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="2443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="2442">
   <si>
     <t>ExtensionData</t>
   </si>
@@ -7271,9 +7271,6 @@
   </si>
   <si>
     <t>Adriana</t>
-  </si>
-  <si>
-    <t>Zu?iga</t>
   </si>
   <si>
     <t>Gradaille</t>
@@ -8193,8 +8190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H514" workbookViewId="0">
-      <selection activeCell="J520" sqref="J520"/>
+    <sheetView tabSelected="1" topLeftCell="H184" workbookViewId="0">
+      <selection activeCell="L505" sqref="L505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8245,19 +8242,19 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L1" t="s">
         <v>2438</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>2439</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>2440</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>2441</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -26365,7 +26362,7 @@
         <v>16</v>
       </c>
       <c r="K505" t="s">
-        <v>1525</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.25">
@@ -27197,7 +27194,7 @@
         <v>2143</v>
       </c>
       <c r="M528" t="s">
-        <v>2417</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.25">
@@ -27232,7 +27229,7 @@
         <v>1686</v>
       </c>
       <c r="L529" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.25">
@@ -27267,7 +27264,7 @@
         <v>2399</v>
       </c>
       <c r="L530" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.25">
@@ -27299,10 +27296,10 @@
         <v>16</v>
       </c>
       <c r="K531" t="s">
+        <v>2419</v>
+      </c>
+      <c r="L531" t="s">
         <v>2420</v>
-      </c>
-      <c r="L531" t="s">
-        <v>2421</v>
       </c>
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.25">
@@ -27334,7 +27331,7 @@
         <v>16</v>
       </c>
       <c r="K532" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="L532" t="s">
         <v>1856</v>
@@ -27369,10 +27366,10 @@
         <v>16</v>
       </c>
       <c r="K533" t="s">
+        <v>2422</v>
+      </c>
+      <c r="L533" t="s">
         <v>2423</v>
-      </c>
-      <c r="L533" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.25">
@@ -27404,10 +27401,10 @@
         <v>16</v>
       </c>
       <c r="K534" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L534" t="s">
         <v>2425</v>
-      </c>
-      <c r="L534" t="s">
-        <v>2426</v>
       </c>
       <c r="M534" t="s">
         <v>1965</v>
@@ -27477,7 +27474,7 @@
         <v>16</v>
       </c>
       <c r="K536" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="L536" t="s">
         <v>1972</v>
@@ -27512,10 +27509,10 @@
         <v>16</v>
       </c>
       <c r="K537" t="s">
+        <v>2427</v>
+      </c>
+      <c r="L537" t="s">
         <v>2428</v>
-      </c>
-      <c r="L537" t="s">
-        <v>2429</v>
       </c>
       <c r="M537" t="s">
         <v>1657</v>
@@ -27550,10 +27547,10 @@
         <v>16</v>
       </c>
       <c r="K538" t="s">
+        <v>2429</v>
+      </c>
+      <c r="L538" t="s">
         <v>2430</v>
-      </c>
-      <c r="L538" t="s">
-        <v>2431</v>
       </c>
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.25">
@@ -27585,13 +27582,13 @@
         <v>16</v>
       </c>
       <c r="K539" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="L539" t="s">
         <v>2255</v>
       </c>
       <c r="M539" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.25">
@@ -27623,7 +27620,7 @@
         <v>16</v>
       </c>
       <c r="K540" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="L540" t="s">
         <v>1664</v>
@@ -27658,7 +27655,7 @@
         <v>16</v>
       </c>
       <c r="K541" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="L541" t="s">
         <v>2126</v>
@@ -27731,7 +27728,7 @@
         <v>1714</v>
       </c>
       <c r="L543" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.25">
@@ -27798,7 +27795,7 @@
         <v>16</v>
       </c>
       <c r="K545" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="L545" t="s">
         <v>1757</v>

--- a/PHS_Grade12@psd1.org.xlsx
+++ b/PHS_Grade12@psd1.org.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnw\Documents\GitHub\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{356ACFDA-1A1D-4FA3-882E-F0E0FC088B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9D20F6-C934-4C08-AE6C-53B3EF0E9B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40845" yWindow="-11130" windowWidth="22380" windowHeight="20220"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="PHS_Grade12@psd1.org" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="1071">
   <si>
     <t>DisplayName</t>
   </si>
@@ -106,6 +106,12 @@
     <t>zamaria423@students.psd1.org</t>
   </si>
   <si>
+    <t>David Marin</t>
+  </si>
+  <si>
+    <t>david401@students.psd1.org</t>
+  </si>
+  <si>
     <t>Ivan-Armando Rodriguez</t>
   </si>
   <si>
@@ -142,13 +148,7 @@
     <t>evelyn704@students.thedeltahighschool.com</t>
   </si>
   <si>
-    <t>Christian Jimenez Mendoza</t>
-  </si>
-  <si>
-    <t>christian195@students.psd1.org</t>
-  </si>
-  <si>
-    <t>Jaxson Floyd</t>
+    <t>Jaxson Vooge</t>
   </si>
   <si>
     <t>jaxson979@students.psd1.org</t>
@@ -208,12 +208,6 @@
     <t>saul036@students.psd1.org</t>
   </si>
   <si>
-    <t>Agustin Silva Lugo</t>
-  </si>
-  <si>
-    <t>agustin200@students.psd1.org</t>
-  </si>
-  <si>
     <t>Marlene Mendoza</t>
   </si>
   <si>
@@ -268,12 +262,6 @@
     <t>taryn792@students.psd1.org</t>
   </si>
   <si>
-    <t>Alexander Flores</t>
-  </si>
-  <si>
-    <t>alexander258@students.psd1.org</t>
-  </si>
-  <si>
     <t>Nalany Rubio</t>
   </si>
   <si>
@@ -436,18 +424,6 @@
     <t>rylee729@students.psd1.org</t>
   </si>
   <si>
-    <t>Miguel Alcalan</t>
-  </si>
-  <si>
-    <t>miguel869@students.psd1.org</t>
-  </si>
-  <si>
-    <t>Aliyah Esparza</t>
-  </si>
-  <si>
-    <t>aliyah099@students.psd1.org</t>
-  </si>
-  <si>
     <t>Spencer Buchanan</t>
   </si>
   <si>
@@ -472,12 +448,6 @@
     <t>lexamarie017@students.psd1.org</t>
   </si>
   <si>
-    <t>Ricardo Flores Becerra</t>
-  </si>
-  <si>
-    <t>ricardo286@students.psd1.org</t>
-  </si>
-  <si>
     <t>Eben Frank</t>
   </si>
   <si>
@@ -592,12 +562,6 @@
     <t>daniel004@students.psd1.org</t>
   </si>
   <si>
-    <t>Julio Guzman</t>
-  </si>
-  <si>
-    <t>julio520@students.psd1.org</t>
-  </si>
-  <si>
     <t>Neftali Carballo</t>
   </si>
   <si>
@@ -628,12 +592,6 @@
     <t>daniel037@students.psd1.org</t>
   </si>
   <si>
-    <t>Miguel Calvillo</t>
-  </si>
-  <si>
-    <t>miguel733@students.psd1.org</t>
-  </si>
-  <si>
     <t>Manuel Gonzalez</t>
   </si>
   <si>
@@ -658,18 +616,6 @@
     <t>david249@students.psd1.org</t>
   </si>
   <si>
-    <t>Jonathan Vaca Torres</t>
-  </si>
-  <si>
-    <t>jonathan417@students.psd1.org</t>
-  </si>
-  <si>
-    <t>Uriel Villegas</t>
-  </si>
-  <si>
-    <t>uriel147@students.psd1.org</t>
-  </si>
-  <si>
     <t>Ismael Rendon Anaya</t>
   </si>
   <si>
@@ -928,12 +874,6 @@
     <t>jamie716@students.psd1.org</t>
   </si>
   <si>
-    <t>Telma Campos</t>
-  </si>
-  <si>
-    <t>telma001@students.psd1.org</t>
-  </si>
-  <si>
     <t>Carlos Murillo</t>
   </si>
   <si>
@@ -988,12 +928,6 @@
     <t>michael131@students.psd1.org</t>
   </si>
   <si>
-    <t>Anthony Diorio</t>
-  </si>
-  <si>
-    <t>anthony096@students.psd1.org</t>
-  </si>
-  <si>
     <t>Harlee Hollibaugh</t>
   </si>
   <si>
@@ -1012,22 +946,16 @@
     <t>princess611@students.psd1.org</t>
   </si>
   <si>
-    <t>Cindy Navarrete</t>
-  </si>
-  <si>
-    <t>cindy171@students.psd1.org</t>
-  </si>
-  <si>
     <t>Pedro Escobar Espinoza</t>
   </si>
   <si>
     <t>pedro601@students.psd1.org</t>
   </si>
   <si>
-    <t>axel moreno</t>
-  </si>
-  <si>
-    <t>axel564@students.psd1.org</t>
+    <t>Jesden Sandoval</t>
+  </si>
+  <si>
+    <t>jesden924@students.psd1.org</t>
   </si>
   <si>
     <t>Yair Miranda</t>
@@ -1090,12 +1018,6 @@
     <t>fernando699@students.psd1.org</t>
   </si>
   <si>
-    <t>Karry Vazquez Gomez</t>
-  </si>
-  <si>
-    <t>karry686@students.psd1.org</t>
-  </si>
-  <si>
     <t>Cynthia Lopez</t>
   </si>
   <si>
@@ -1138,18 +1060,6 @@
     <t>jennifer835@students.psd1.org</t>
   </si>
   <si>
-    <t>Yosseline Garcia Ramirez</t>
-  </si>
-  <si>
-    <t>yosseline003@students.psd1.org</t>
-  </si>
-  <si>
-    <t>Julieta Villegas</t>
-  </si>
-  <si>
-    <t>julieta646@students.psd1.org</t>
-  </si>
-  <si>
     <t>Evelyn Villegas Garcia</t>
   </si>
   <si>
@@ -1378,6 +1288,12 @@
     <t>victor761@students.psd1.org</t>
   </si>
   <si>
+    <t>Seleste Nunez</t>
+  </si>
+  <si>
+    <t>seleste000@students.psd1.org</t>
+  </si>
+  <si>
     <t>Nicole Veliz</t>
   </si>
   <si>
@@ -1420,6 +1336,12 @@
     <t>javier117@students.psd1.org</t>
   </si>
   <si>
+    <t>Aaliyah Cloy</t>
+  </si>
+  <si>
+    <t>aaliyah684@students.psd1.org</t>
+  </si>
+  <si>
     <t>Wesley Ashcraft</t>
   </si>
   <si>
@@ -1450,12 +1372,6 @@
     <t>roberto293@students.psd1.org</t>
   </si>
   <si>
-    <t>Amairany Basurto Manzo</t>
-  </si>
-  <si>
-    <t>amairany455@students.psd1.org</t>
-  </si>
-  <si>
     <t>Sofia Correa</t>
   </si>
   <si>
@@ -1582,12 +1498,6 @@
     <t>william992@students.psd1.org</t>
   </si>
   <si>
-    <t>David Rua Buckley</t>
-  </si>
-  <si>
-    <t>david281@students.psd1.org</t>
-  </si>
-  <si>
     <t>Juan Rosales</t>
   </si>
   <si>
@@ -1642,12 +1552,6 @@
     <t>carlos781@students.psd1.org</t>
   </si>
   <si>
-    <t>Andres Garcia</t>
-  </si>
-  <si>
-    <t>andres548@students.psd1.org</t>
-  </si>
-  <si>
     <t>Logan Moore</t>
   </si>
   <si>
@@ -1672,12 +1576,6 @@
     <t>pedro565@students.psd1.org</t>
   </si>
   <si>
-    <t>Viridiana Gallegos Nagera</t>
-  </si>
-  <si>
-    <t>viridiana808@students.psd1.org</t>
-  </si>
-  <si>
     <t>Ashlee Sanchez Nava</t>
   </si>
   <si>
@@ -1702,12 +1600,6 @@
     <t>martin310@students.psd1.org</t>
   </si>
   <si>
-    <t>Janet Nunez Contreras</t>
-  </si>
-  <si>
-    <t>janet536@students.psd1.org</t>
-  </si>
-  <si>
     <t>Eric Villegas Rodriquez</t>
   </si>
   <si>
@@ -1828,12 +1720,6 @@
     <t>nathalie832@students.psd1.org</t>
   </si>
   <si>
-    <t>Pablo Farias Torres</t>
-  </si>
-  <si>
-    <t>pablo597@students.psd1.org</t>
-  </si>
-  <si>
     <t>Nicholas Quintero</t>
   </si>
   <si>
@@ -1870,6 +1756,12 @@
     <t>siomara533@students.psd1.org</t>
   </si>
   <si>
+    <t>Yoana Zanauria Morfin</t>
+  </si>
+  <si>
+    <t>yoana335@students.psd1.org</t>
+  </si>
+  <si>
     <t>Diana Villa Hernandez</t>
   </si>
   <si>
@@ -1894,24 +1786,12 @@
     <t>ana715@students.psd1.org</t>
   </si>
   <si>
-    <t>Giovanni Arreola Fraire</t>
-  </si>
-  <si>
-    <t>giovanni657@students.psd1.org</t>
-  </si>
-  <si>
     <t>Joanna Soto Chavez</t>
   </si>
   <si>
     <t>joanna667@students.psd1.org</t>
   </si>
   <si>
-    <t>Wilber Garcia Espino</t>
-  </si>
-  <si>
-    <t>wilber531@students.psd1.org</t>
-  </si>
-  <si>
     <t>Gerardo Herrera</t>
   </si>
   <si>
@@ -2056,12 +1936,6 @@
     <t>ana320@students.psd1.org</t>
   </si>
   <si>
-    <t>Emily Arellano</t>
-  </si>
-  <si>
-    <t>emily923@students.psd1.org</t>
-  </si>
-  <si>
     <t>Kevin Mendoza</t>
   </si>
   <si>
@@ -2248,10 +2122,10 @@
     <t>jennifer102@students.psd1.org</t>
   </si>
   <si>
-    <t>Ernesto Olivera</t>
-  </si>
-  <si>
-    <t>ernesto841@students.psd1.org</t>
+    <t>Fabian Garcia</t>
+  </si>
+  <si>
+    <t>fabian758@students.psd1.org</t>
   </si>
   <si>
     <t>Alondra Muro Hernandez</t>
@@ -2338,12 +2212,6 @@
     <t>carson500@students.psd1.org</t>
   </si>
   <si>
-    <t>Isaac Rodriguez</t>
-  </si>
-  <si>
-    <t>isaac787@students.psd1.org</t>
-  </si>
-  <si>
     <t>Calumet Kubalek</t>
   </si>
   <si>
@@ -2398,6 +2266,12 @@
     <t>daphne241@students.psd1.org</t>
   </si>
   <si>
+    <t>Isaiah Espinoza</t>
+  </si>
+  <si>
+    <t>isaiah422@students.psd1.org</t>
+  </si>
+  <si>
     <t>Lizbeth Soto</t>
   </si>
   <si>
@@ -2434,6 +2308,12 @@
     <t>justice756@students.psd1.org</t>
   </si>
   <si>
+    <t>Angel Ruiz</t>
+  </si>
+  <si>
+    <t>angel899@students.psd1.org</t>
+  </si>
+  <si>
     <t>Zara Rodriguez</t>
   </si>
   <si>
@@ -2557,7 +2437,7 @@
     <t>Natalie Martin</t>
   </si>
   <si>
-    <t>natalie789@students.psd1.org</t>
+    <t>max789@students.psd1.org</t>
   </si>
   <si>
     <t>Dhamar Chavez Martinez</t>
@@ -2692,12 +2572,24 @@
     <t>kaylee417@students.thedeltahighschool.com</t>
   </si>
   <si>
+    <t>Angela Alvarez</t>
+  </si>
+  <si>
+    <t>angela451@students.thedeltahighschool.com</t>
+  </si>
+  <si>
     <t>Valeria Chavez</t>
   </si>
   <si>
     <t>valeria707@students.psd1.org</t>
   </si>
   <si>
+    <t>Julio Guzman Clancy</t>
+  </si>
+  <si>
+    <t>julio272@students.psd1.org</t>
+  </si>
+  <si>
     <t>Lincoln Smart</t>
   </si>
   <si>
@@ -2740,12 +2632,6 @@
     <t>mirella462@students.psd1.org</t>
   </si>
   <si>
-    <t>Anthony Segura Castro</t>
-  </si>
-  <si>
-    <t>anthony223@students.psd1.org</t>
-  </si>
-  <si>
     <t>Juan Gomez</t>
   </si>
   <si>
@@ -2824,12 +2710,6 @@
     <t>maxwell002@students.psd1.org</t>
   </si>
   <si>
-    <t>Daniel Neri Ojeda</t>
-  </si>
-  <si>
-    <t>daniel018@students.psd1.org</t>
-  </si>
-  <si>
     <t>Marquis Ford</t>
   </si>
   <si>
@@ -2884,12 +2764,6 @@
     <t>angel053@students.psd1.org</t>
   </si>
   <si>
-    <t>Michelle Avila Silva</t>
-  </si>
-  <si>
-    <t>michelle009@students.psd1.org</t>
-  </si>
-  <si>
     <t>Ana Benavides</t>
   </si>
   <si>
@@ -2986,12 +2860,6 @@
     <t>blanca005@students.psd1.org</t>
   </si>
   <si>
-    <t>Tyler Moen</t>
-  </si>
-  <si>
-    <t>tyler011@students.psd1.org</t>
-  </si>
-  <si>
     <t>Erin Gimmaka</t>
   </si>
   <si>
@@ -3001,12 +2869,6 @@
     <t>andrea007@students.psd1.org</t>
   </si>
   <si>
-    <t>Rigoberto Godinez Arevalos</t>
-  </si>
-  <si>
-    <t>rigoberto001@students.psd1.org</t>
-  </si>
-  <si>
     <t>Drew Axel</t>
   </si>
   <si>
@@ -3043,12 +2905,6 @@
     <t>lizette003@students.psd1.org</t>
   </si>
   <si>
-    <t>yareli990</t>
-  </si>
-  <si>
-    <t>yareli990@students.psd1.org</t>
-  </si>
-  <si>
     <t>Jaqueline Avila Medina</t>
   </si>
   <si>
@@ -3061,24 +2917,12 @@
     <t>johnny003@students.psd1.org</t>
   </si>
   <si>
-    <t>Brian Velazquez</t>
-  </si>
-  <si>
-    <t>brian006@students.psd1.org</t>
-  </si>
-  <si>
     <t>Olivia Uvalle</t>
   </si>
   <si>
     <t>olivia013@students.psd1.org</t>
   </si>
   <si>
-    <t>David Santos</t>
-  </si>
-  <si>
-    <t>david050@students.psd1.org</t>
-  </si>
-  <si>
     <t>Mario Alcaraz</t>
   </si>
   <si>
@@ -3217,12 +3061,6 @@
     <t>briana008@students.psd1.org</t>
   </si>
   <si>
-    <t>Carlitos Soliz Campos</t>
-  </si>
-  <si>
-    <t>carlitos001@students.psd1.org</t>
-  </si>
-  <si>
     <t>Fernando Gonzalez Orozco</t>
   </si>
   <si>
@@ -3241,12 +3079,6 @@
     <t>hailey005@students.psd1.org</t>
   </si>
   <si>
-    <t>Margarita Negrete Larios</t>
-  </si>
-  <si>
-    <t>margarita002@students.psd1.org</t>
-  </si>
-  <si>
     <t>Dakota Hale</t>
   </si>
   <si>
@@ -3289,12 +3121,6 @@
     <t>jolie001@students.psd1.org</t>
   </si>
   <si>
-    <t>Trystan Hatch</t>
-  </si>
-  <si>
-    <t>trystan003@students.psd1.org</t>
-  </si>
-  <si>
     <t>Gauge Machado</t>
   </si>
   <si>
@@ -3367,16 +3193,46 @@
     <t>jose088@students.psd1.org</t>
   </si>
   <si>
-    <t>Michelle Murillo</t>
-  </si>
-  <si>
-    <t>michelle013@students.psd1.org</t>
-  </si>
-  <si>
     <t>Sandra Delgadillo Castellanos</t>
   </si>
   <si>
     <t>sandra007@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Ariana Bermudez</t>
+  </si>
+  <si>
+    <t>ariana024@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Heidi Ramirez</t>
+  </si>
+  <si>
+    <t>heidi006@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Juan Diaz</t>
+  </si>
+  <si>
+    <t>juan058@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Leilanie Zamora</t>
+  </si>
+  <si>
+    <t>leilanie001@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Brandon Mercado</t>
+  </si>
+  <si>
+    <t>brandon034@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Kimberly Hernandez</t>
+  </si>
+  <si>
+    <t>kimberly035@students.psd1.org</t>
   </si>
 </sst>
 </file>
@@ -4217,10 +4073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B560"/>
+  <dimension ref="A1:B536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8023,183 +7879,183 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>690</v>
+      </c>
+      <c r="B475" t="s">
         <v>948</v>
-      </c>
-      <c r="B475" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>949</v>
+      </c>
+      <c r="B476" t="s">
         <v>950</v>
-      </c>
-      <c r="B476" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>951</v>
+      </c>
+      <c r="B477" t="s">
         <v>952</v>
-      </c>
-      <c r="B477" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>953</v>
+      </c>
+      <c r="B478" t="s">
         <v>954</v>
-      </c>
-      <c r="B478" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>955</v>
+      </c>
+      <c r="B479" t="s">
         <v>956</v>
-      </c>
-      <c r="B479" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>957</v>
+      </c>
+      <c r="B480" t="s">
         <v>958</v>
-      </c>
-      <c r="B480" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>959</v>
+      </c>
+      <c r="B481" t="s">
         <v>960</v>
-      </c>
-      <c r="B481" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>961</v>
+      </c>
+      <c r="B482" t="s">
         <v>962</v>
-      </c>
-      <c r="B482" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>963</v>
+      </c>
+      <c r="B483" t="s">
         <v>964</v>
-      </c>
-      <c r="B483" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>965</v>
+      </c>
+      <c r="B484" t="s">
         <v>966</v>
-      </c>
-      <c r="B484" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>967</v>
+      </c>
+      <c r="B485" t="s">
         <v>968</v>
-      </c>
-      <c r="B485" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>969</v>
+      </c>
+      <c r="B486" t="s">
         <v>970</v>
-      </c>
-      <c r="B486" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>971</v>
+      </c>
+      <c r="B487" t="s">
         <v>972</v>
-      </c>
-      <c r="B487" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>973</v>
+      </c>
+      <c r="B488" t="s">
         <v>974</v>
-      </c>
-      <c r="B488" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>975</v>
+      </c>
+      <c r="B489" t="s">
         <v>976</v>
-      </c>
-      <c r="B489" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>977</v>
+      </c>
+      <c r="B490" t="s">
         <v>978</v>
-      </c>
-      <c r="B490" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>979</v>
+      </c>
+      <c r="B491" t="s">
         <v>980</v>
-      </c>
-      <c r="B491" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>981</v>
+      </c>
+      <c r="B492" t="s">
         <v>982</v>
-      </c>
-      <c r="B492" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>983</v>
+      </c>
+      <c r="B493" t="s">
         <v>984</v>
-      </c>
-      <c r="B493" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>985</v>
+      </c>
+      <c r="B494" t="s">
         <v>986</v>
-      </c>
-      <c r="B494" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>987</v>
+      </c>
+      <c r="B495" t="s">
         <v>988</v>
-      </c>
-      <c r="B495" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>989</v>
+      </c>
+      <c r="B496" t="s">
         <v>990</v>
-      </c>
-      <c r="B496" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>732</v>
+        <v>991</v>
       </c>
       <c r="B497" t="s">
         <v>992</v>
@@ -8515,198 +8371,6 @@
       </c>
       <c r="B536" t="s">
         <v>1070</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B537" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B539" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B542" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B543" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B544" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B548" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B549" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B550" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B554" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B558" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B559" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1118</v>
       </c>
     </row>
   </sheetData>
